--- a/bin/new注释表.xlsx
+++ b/bin/new注释表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>NOTE_ID</t>
   </si>
@@ -97,19 +97,25 @@
     <t>INDEXER</t>
   </si>
   <si>
+    <t>注1</t>
+  </si>
+  <si>
+    <t>1氧气管道及其组成件与流体接触的表面应按HG 20202的规定进行脱脂。脱脂后应封闭管口并充入干燥氮气。</t>
+  </si>
+  <si>
+    <t>2016/08/19</t>
+  </si>
+  <si>
     <t>注2</t>
   </si>
   <si>
     <t>2锅炉范围内管道应采用GB 3087标准。</t>
   </si>
   <si>
-    <t>2016/08/12</t>
-  </si>
-  <si>
     <t>注3</t>
   </si>
   <si>
-    <t>3碱液浓度＞40%时，碳钢和低合金钢管道焊后或冷加工后应进行消除应力热处理。热处理温度宜为600℃</t>
+    <t>3碱液浓度＞40%时，碳钢和低合金钢管道焊后或冷加工后应进行消除应力热处理。热处理温度宜为600℃~650℃，保温时间2.4min/mm，且不应少于1h。</t>
   </si>
   <si>
     <t>注4</t>
@@ -148,18 +154,27 @@
     <t>9正常工作温度≤50℃，＞50℃为短时间工况。</t>
   </si>
   <si>
-    <t>注1</t>
+    <t>注10</t>
   </si>
   <si>
     <t>10与铸铁法兰相连接的钢法兰应选用FF密封面。</t>
   </si>
   <si>
+    <t>注11</t>
+  </si>
+  <si>
     <t>11固体颗粒等级或湿度等级高于3级的干燥和净化压缩空气管道采用不锈钢管。</t>
   </si>
   <si>
+    <t>注12</t>
+  </si>
+  <si>
     <t>12对介质的洁净度或管道的耐蚀性有较高要求时采用不锈钢管。</t>
   </si>
   <si>
+    <t>注13</t>
+  </si>
+  <si>
     <t>13高纯气体应根据纯度的不同，按GB 50724的规定分别采用AP、BA、EP管。</t>
   </si>
   <si>
@@ -181,21 +196,33 @@
     <t xml:space="preserve">    9.D-LD2000即《烟风煤粉管道零部件典型设计手册》。</t>
   </si>
   <si>
-    <t xml:space="preserve">    10.仅用于对阀门密封面要求不高的场合。</t>
+    <t xml:space="preserve">    10.仅用于对阀门密封面要求不高的场合。None</t>
   </si>
   <si>
     <t>P0C3</t>
   </si>
   <si>
+    <t xml:space="preserve">    8.当不允许使用含石棉的垫片时采用。None</t>
+  </si>
+  <si>
     <t>P0S1</t>
   </si>
   <si>
+    <t xml:space="preserve">    9.D-LD2000即《烟风煤粉管道零部件典型设计手册》。None</t>
+  </si>
+  <si>
     <t>P6C1</t>
   </si>
   <si>
+    <t xml:space="preserve">    2.对焊端部厚度与相连管道的壁厚相同。None</t>
+  </si>
+  <si>
     <t>P6S1</t>
   </si>
   <si>
+    <t xml:space="preserve">    3.短半径弯头仅用于布置特殊需要，其最高工作压力不宜超过同规格长半径弯头的0.8倍。None</t>
+  </si>
+  <si>
     <t>P10C1</t>
   </si>
   <si>
@@ -205,12 +232,15 @@
     <t xml:space="preserve">    6.旋启式止回阀安装在水平位置且阀盖向上或者安装在竖直位置且介质流向从下到上。</t>
   </si>
   <si>
-    <t xml:space="preserve">    11.高于本等级规定压力等级的法兰及其垫片、紧固件用于变等级处。</t>
+    <t xml:space="preserve">    11.高于本等级规定压力等级的法兰及其垫片、紧固件用于变等级处。None</t>
   </si>
   <si>
     <t>P10C2</t>
   </si>
   <si>
+    <t xml:space="preserve">    6.旋启式止回阀安装在水平位置且阀盖向上或者安装在竖直位置且介质流向从下到上。None</t>
+  </si>
+  <si>
     <t>P10C3</t>
   </si>
   <si>
@@ -272,6 +302,9 @@
   </si>
   <si>
     <t>P10P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.立式升降式止回阀应安装在垂直管道上。None</t>
   </si>
   <si>
     <t>P10P4</t>
@@ -878,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z399"/>
+  <dimension ref="A1:Z400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,7 +1001,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="n">
-        <v>7166</v>
+        <v>11150</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -980,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1000,7 +1033,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="n">
-        <v>7167</v>
+        <v>11151</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1012,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1032,7 +1065,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="n">
-        <v>7168</v>
+        <v>11152</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1044,7 +1077,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1064,7 +1097,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="n">
-        <v>7169</v>
+        <v>11153</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1076,7 +1109,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1096,7 +1129,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="n">
-        <v>7170</v>
+        <v>11154</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1108,7 +1141,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1128,7 +1161,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="n">
-        <v>7171</v>
+        <v>11155</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1140,7 +1173,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1160,7 +1193,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="n">
-        <v>7172</v>
+        <v>11156</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1172,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1192,7 +1225,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="n">
-        <v>7173</v>
+        <v>11157</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1204,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1224,7 +1257,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="n">
-        <v>7174</v>
+        <v>11158</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1236,7 +1269,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1256,19 +1289,19 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="n">
-        <v>7175</v>
+        <v>11159</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1288,19 +1321,19 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="n">
-        <v>7176</v>
+        <v>11160</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1320,19 +1353,19 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="n">
-        <v>7177</v>
+        <v>11161</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1352,19 +1385,19 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="n">
-        <v>7178</v>
+        <v>11162</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1384,19 +1417,19 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="n">
-        <v>7179</v>
+        <v>11163</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1416,19 +1449,19 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="n">
-        <v>7180</v>
+        <v>11164</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1448,19 +1481,19 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="n">
-        <v>7181</v>
+        <v>11165</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1480,19 +1513,19 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="n">
-        <v>7182</v>
+        <v>11166</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1512,19 +1545,19 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="n">
-        <v>7183</v>
+        <v>11167</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1544,19 +1577,19 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="n">
-        <v>7184</v>
+        <v>11168</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1576,19 +1609,19 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="n">
-        <v>7185</v>
+        <v>11169</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1608,19 +1641,19 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="n">
-        <v>7186</v>
+        <v>11170</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1640,19 +1673,19 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="n">
-        <v>7187</v>
+        <v>11171</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1672,19 +1705,19 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="n">
-        <v>7188</v>
+        <v>11172</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1704,19 +1737,19 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="n">
-        <v>7189</v>
+        <v>11173</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1736,19 +1769,19 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="n">
-        <v>7190</v>
+        <v>11174</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1768,19 +1801,19 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="n">
-        <v>7191</v>
+        <v>11175</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1800,19 +1833,19 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="n">
-        <v>7192</v>
+        <v>11176</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1832,19 +1865,19 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="n">
-        <v>7193</v>
+        <v>11177</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1864,19 +1897,19 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="n">
-        <v>7194</v>
+        <v>11178</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1896,19 +1929,19 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="n">
-        <v>7195</v>
+        <v>11179</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1928,19 +1961,19 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="n">
-        <v>7196</v>
+        <v>11180</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1960,19 +1993,19 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="n">
-        <v>7197</v>
+        <v>11181</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E33" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1992,19 +2025,19 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="n">
-        <v>7198</v>
+        <v>11182</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2024,19 +2057,19 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="n">
-        <v>7199</v>
+        <v>11183</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2056,19 +2089,19 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="n">
-        <v>7200</v>
+        <v>11184</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2088,19 +2121,19 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="n">
-        <v>7201</v>
+        <v>11185</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2120,19 +2153,19 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="n">
-        <v>7202</v>
+        <v>11186</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2152,19 +2185,19 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="n">
-        <v>7203</v>
+        <v>11187</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2184,19 +2217,19 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="n">
-        <v>7204</v>
+        <v>11188</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2216,19 +2249,19 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="n">
-        <v>7205</v>
+        <v>11189</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2248,19 +2281,19 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="n">
-        <v>7206</v>
+        <v>11190</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2280,19 +2313,19 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="n">
-        <v>7207</v>
+        <v>11191</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2312,19 +2345,19 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="n">
-        <v>7208</v>
+        <v>11192</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2344,19 +2377,19 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="n">
-        <v>7209</v>
+        <v>11193</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2376,19 +2409,19 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="n">
-        <v>7210</v>
+        <v>11194</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2408,19 +2441,19 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="n">
-        <v>7211</v>
+        <v>11195</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2440,19 +2473,19 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="n">
-        <v>7212</v>
+        <v>11196</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2472,19 +2505,19 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="n">
-        <v>7213</v>
+        <v>11197</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2504,19 +2537,19 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="n">
-        <v>7214</v>
+        <v>11198</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2536,19 +2569,19 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="n">
-        <v>7215</v>
+        <v>11199</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2568,19 +2601,19 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="n">
-        <v>7216</v>
+        <v>11200</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2600,19 +2633,19 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="n">
-        <v>7217</v>
+        <v>11201</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2632,19 +2665,19 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="n">
-        <v>7218</v>
+        <v>11202</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2664,19 +2697,19 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="n">
-        <v>7219</v>
+        <v>11203</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2696,19 +2729,19 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="n">
-        <v>7220</v>
+        <v>11204</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2728,19 +2761,19 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="n">
-        <v>7221</v>
+        <v>11205</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2760,19 +2793,19 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="n">
-        <v>7222</v>
+        <v>11206</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2792,10 +2825,10 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="n">
-        <v>7223</v>
+        <v>11207</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
@@ -2804,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2824,19 +2857,19 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="n">
-        <v>7224</v>
+        <v>11208</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2856,19 +2889,19 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="n">
-        <v>7225</v>
+        <v>11209</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2888,19 +2921,19 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="n">
-        <v>7226</v>
+        <v>11210</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2920,19 +2953,19 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="n">
-        <v>7227</v>
+        <v>11211</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2952,19 +2985,19 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="n">
-        <v>7228</v>
+        <v>11212</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2984,19 +3017,19 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="n">
-        <v>7229</v>
+        <v>11213</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3016,19 +3049,19 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="n">
-        <v>7230</v>
+        <v>11214</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3048,19 +3081,19 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="n">
-        <v>7231</v>
+        <v>11215</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3080,19 +3113,19 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="n">
-        <v>7232</v>
+        <v>11216</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3112,19 +3145,19 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="n">
-        <v>7233</v>
+        <v>11217</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3144,19 +3177,19 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="n">
-        <v>7234</v>
+        <v>11218</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3176,19 +3209,19 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="n">
-        <v>7235</v>
+        <v>11219</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3208,19 +3241,19 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="n">
-        <v>7236</v>
+        <v>11220</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3240,19 +3273,19 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="n">
-        <v>7237</v>
+        <v>11221</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3272,19 +3305,19 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="n">
-        <v>7238</v>
+        <v>11222</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3304,19 +3337,19 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="n">
-        <v>7239</v>
+        <v>11223</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3336,19 +3369,19 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="n">
-        <v>7240</v>
+        <v>11224</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3368,19 +3401,19 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="n">
-        <v>7241</v>
+        <v>11225</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3400,10 +3433,10 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="n">
-        <v>7242</v>
+        <v>11226</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
@@ -3412,7 +3445,7 @@
         <v>70</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3432,19 +3465,19 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="n">
-        <v>7243</v>
+        <v>11227</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3464,19 +3497,19 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="n">
-        <v>7244</v>
+        <v>11228</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E80" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3496,19 +3529,19 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" t="n">
-        <v>7245</v>
+        <v>11229</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
         <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3528,19 +3561,19 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" t="n">
-        <v>7246</v>
+        <v>11230</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3560,19 +3593,19 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" t="n">
-        <v>7247</v>
+        <v>11231</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3592,19 +3625,19 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" t="n">
-        <v>7248</v>
+        <v>11232</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3624,19 +3657,19 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" t="n">
-        <v>7249</v>
+        <v>11233</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3656,19 +3689,19 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" t="n">
-        <v>7250</v>
+        <v>11234</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3688,19 +3721,19 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" t="n">
-        <v>7251</v>
+        <v>11235</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3720,19 +3753,19 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" t="n">
-        <v>7252</v>
+        <v>11236</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3752,19 +3785,19 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" t="n">
-        <v>7253</v>
+        <v>11237</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3784,19 +3817,19 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" t="n">
-        <v>7254</v>
+        <v>11238</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3816,19 +3849,19 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" t="n">
-        <v>7255</v>
+        <v>11239</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3848,19 +3881,19 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" t="n">
-        <v>7256</v>
+        <v>11240</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3880,19 +3913,19 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" t="n">
-        <v>7257</v>
+        <v>11241</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3912,19 +3945,19 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" t="n">
-        <v>7258</v>
+        <v>11242</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3944,19 +3977,19 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" t="n">
-        <v>7259</v>
+        <v>11243</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3976,19 +4009,19 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" t="n">
-        <v>7260</v>
+        <v>11244</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4008,19 +4041,19 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" t="n">
-        <v>7261</v>
+        <v>11245</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4040,19 +4073,19 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" t="n">
-        <v>7262</v>
+        <v>11246</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4072,19 +4105,19 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" t="n">
-        <v>7263</v>
+        <v>11247</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4104,19 +4137,19 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" t="n">
-        <v>7264</v>
+        <v>11248</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4136,19 +4169,19 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" t="n">
-        <v>7265</v>
+        <v>11249</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E101" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4168,19 +4201,19 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" t="n">
-        <v>7266</v>
+        <v>11250</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4200,19 +4233,19 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" t="n">
-        <v>7267</v>
+        <v>11251</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E103" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4232,19 +4265,19 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" t="n">
-        <v>7268</v>
+        <v>11252</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E104" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4264,19 +4297,19 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" t="n">
-        <v>7269</v>
+        <v>11253</v>
       </c>
       <c r="B105" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E105" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4296,19 +4329,19 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" t="n">
-        <v>7270</v>
+        <v>11254</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4328,19 +4361,19 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" t="n">
-        <v>7271</v>
+        <v>11255</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E107" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4360,19 +4393,19 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" t="n">
-        <v>7272</v>
+        <v>11256</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4392,19 +4425,19 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" t="n">
-        <v>7273</v>
+        <v>11257</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4424,19 +4457,19 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" t="n">
-        <v>7274</v>
+        <v>11258</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
         <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4456,19 +4489,19 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" t="n">
-        <v>7275</v>
+        <v>11259</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4488,19 +4521,19 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" t="n">
-        <v>7276</v>
+        <v>11260</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4520,19 +4553,19 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" t="n">
-        <v>7277</v>
+        <v>11261</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E113" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4552,19 +4585,19 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" t="n">
-        <v>7278</v>
+        <v>11262</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
         <v>32</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4584,10 +4617,10 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" t="n">
-        <v>7279</v>
+        <v>11263</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -4596,7 +4629,7 @@
         <v>70</v>
       </c>
       <c r="E115" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4616,19 +4649,19 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" t="n">
-        <v>7280</v>
+        <v>11264</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4648,19 +4681,19 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" t="n">
-        <v>7281</v>
+        <v>11265</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E117" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4680,19 +4713,19 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" t="n">
-        <v>7282</v>
+        <v>11266</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4712,19 +4745,19 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" t="n">
-        <v>7283</v>
+        <v>11267</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4744,19 +4777,19 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" t="n">
-        <v>7284</v>
+        <v>11268</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C120" t="s">
         <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4776,19 +4809,19 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" t="n">
-        <v>7285</v>
+        <v>11269</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D121" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E121" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4808,19 +4841,19 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" t="n">
-        <v>7286</v>
+        <v>11270</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E122" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4840,19 +4873,19 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" t="n">
-        <v>7287</v>
+        <v>11271</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E123" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4872,19 +4905,19 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" t="n">
-        <v>7288</v>
+        <v>11272</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4904,19 +4937,19 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" t="n">
-        <v>7289</v>
+        <v>11273</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4936,19 +4969,19 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" t="n">
-        <v>7290</v>
+        <v>11274</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C126" t="s">
         <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4968,19 +5001,19 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" t="n">
-        <v>7291</v>
+        <v>11275</v>
       </c>
       <c r="B127" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E127" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5000,19 +5033,19 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" t="n">
-        <v>7292</v>
+        <v>11276</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D128" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E128" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5032,19 +5065,19 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" t="n">
-        <v>7293</v>
+        <v>11277</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5064,19 +5097,19 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" t="n">
-        <v>7294</v>
+        <v>11278</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E130" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5096,19 +5129,19 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" t="n">
-        <v>7295</v>
+        <v>11279</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C131" t="s">
         <v>30</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E131" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5128,19 +5161,19 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" t="n">
-        <v>7296</v>
+        <v>11280</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E132" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5160,19 +5193,19 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" t="n">
-        <v>7297</v>
+        <v>11281</v>
       </c>
       <c r="B133" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
         <v>30</v>
       </c>
       <c r="D133" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5192,19 +5225,19 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" t="n">
-        <v>7298</v>
+        <v>11282</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5224,19 +5257,19 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" t="n">
-        <v>7299</v>
+        <v>11283</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5256,19 +5289,19 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" t="n">
-        <v>7300</v>
+        <v>11284</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E136" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5288,19 +5321,19 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" t="n">
-        <v>7301</v>
+        <v>11285</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E137" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5320,19 +5353,19 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" t="n">
-        <v>7302</v>
+        <v>11286</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E138" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5352,19 +5385,19 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" t="n">
-        <v>7303</v>
+        <v>11287</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C139" t="s">
         <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E139" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5384,19 +5417,19 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" t="n">
-        <v>7304</v>
+        <v>11288</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E140" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5416,19 +5449,19 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" t="n">
-        <v>7305</v>
+        <v>11289</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5448,19 +5481,19 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" t="n">
-        <v>7306</v>
+        <v>11290</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5480,19 +5513,19 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" t="n">
-        <v>7307</v>
+        <v>11291</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C143" t="s">
         <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5512,19 +5545,19 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" t="n">
-        <v>7308</v>
+        <v>11292</v>
       </c>
       <c r="B144" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E144" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5544,19 +5577,19 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" t="n">
-        <v>7309</v>
+        <v>11293</v>
       </c>
       <c r="B145" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E145" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5576,19 +5609,19 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" t="n">
-        <v>7310</v>
+        <v>11294</v>
       </c>
       <c r="B146" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E146" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5608,19 +5641,19 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" t="n">
-        <v>7311</v>
+        <v>11295</v>
       </c>
       <c r="B147" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C147" t="s">
         <v>30</v>
       </c>
       <c r="D147" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5640,19 +5673,19 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" t="n">
-        <v>7312</v>
+        <v>11296</v>
       </c>
       <c r="B148" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
         <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E148" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5672,19 +5705,19 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" t="n">
-        <v>7313</v>
+        <v>11297</v>
       </c>
       <c r="B149" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E149" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5704,19 +5737,19 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" t="n">
-        <v>7314</v>
+        <v>11298</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E150" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5736,19 +5769,19 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" t="n">
-        <v>7315</v>
+        <v>11299</v>
       </c>
       <c r="B151" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
       </c>
       <c r="D151" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E151" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5768,19 +5801,19 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" t="n">
-        <v>7316</v>
+        <v>11300</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C152" t="s">
         <v>32</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E152" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5800,19 +5833,19 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" t="n">
-        <v>7317</v>
+        <v>11301</v>
       </c>
       <c r="B153" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E153" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5832,19 +5865,19 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" t="n">
-        <v>7318</v>
+        <v>11302</v>
       </c>
       <c r="B154" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E154" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5864,19 +5897,19 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" t="n">
-        <v>7319</v>
+        <v>11303</v>
       </c>
       <c r="B155" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C155" t="s">
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E155" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5896,19 +5929,19 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" t="n">
-        <v>7320</v>
+        <v>11304</v>
       </c>
       <c r="B156" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E156" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5928,19 +5961,19 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" t="n">
-        <v>7321</v>
+        <v>11305</v>
       </c>
       <c r="B157" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C157" t="s">
         <v>30</v>
       </c>
       <c r="D157" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E157" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5960,19 +5993,19 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" t="n">
-        <v>7322</v>
+        <v>11306</v>
       </c>
       <c r="B158" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
         <v>32</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E158" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5992,19 +6025,19 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" t="n">
-        <v>7323</v>
+        <v>11307</v>
       </c>
       <c r="B159" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E159" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6024,19 +6057,19 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" t="n">
-        <v>7324</v>
+        <v>11308</v>
       </c>
       <c r="B160" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6056,19 +6089,19 @@
     </row>
     <row r="161" spans="1:26">
       <c r="A161" t="n">
-        <v>7325</v>
+        <v>11309</v>
       </c>
       <c r="B161" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E161" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6088,19 +6121,19 @@
     </row>
     <row r="162" spans="1:26">
       <c r="A162" t="n">
-        <v>7326</v>
+        <v>11310</v>
       </c>
       <c r="B162" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C162" t="s">
         <v>32</v>
       </c>
       <c r="D162" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E162" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6120,19 +6153,19 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" t="n">
-        <v>7327</v>
+        <v>11311</v>
       </c>
       <c r="B163" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D163" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E163" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6152,19 +6185,19 @@
     </row>
     <row r="164" spans="1:26">
       <c r="A164" t="n">
-        <v>7328</v>
+        <v>11312</v>
       </c>
       <c r="B164" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D164" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E164" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6184,19 +6217,19 @@
     </row>
     <row r="165" spans="1:26">
       <c r="A165" t="n">
-        <v>7329</v>
+        <v>11313</v>
       </c>
       <c r="B165" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E165" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6216,19 +6249,19 @@
     </row>
     <row r="166" spans="1:26">
       <c r="A166" t="n">
-        <v>7330</v>
+        <v>11314</v>
       </c>
       <c r="B166" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D166" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6248,19 +6281,19 @@
     </row>
     <row r="167" spans="1:26">
       <c r="A167" t="n">
-        <v>7331</v>
+        <v>11315</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D167" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E167" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6280,19 +6313,19 @@
     </row>
     <row r="168" spans="1:26">
       <c r="A168" t="n">
-        <v>7332</v>
+        <v>11316</v>
       </c>
       <c r="B168" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C168" t="s">
         <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E168" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6312,19 +6345,19 @@
     </row>
     <row r="169" spans="1:26">
       <c r="A169" t="n">
-        <v>7333</v>
+        <v>11317</v>
       </c>
       <c r="B169" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C169" t="s">
         <v>32</v>
       </c>
       <c r="D169" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E169" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6344,19 +6377,19 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" t="n">
-        <v>7334</v>
+        <v>11318</v>
       </c>
       <c r="B170" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D170" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6376,19 +6409,19 @@
     </row>
     <row r="171" spans="1:26">
       <c r="A171" t="n">
-        <v>7335</v>
+        <v>11319</v>
       </c>
       <c r="B171" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s">
         <v>38</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6408,19 +6441,19 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" t="n">
-        <v>7336</v>
+        <v>11320</v>
       </c>
       <c r="B172" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C172" t="s">
         <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E172" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6440,19 +6473,19 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" t="n">
-        <v>7337</v>
+        <v>11321</v>
       </c>
       <c r="B173" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D173" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E173" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6472,19 +6505,19 @@
     </row>
     <row r="174" spans="1:26">
       <c r="A174" t="n">
-        <v>7338</v>
+        <v>11322</v>
       </c>
       <c r="B174" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
         <v>30</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6504,19 +6537,19 @@
     </row>
     <row r="175" spans="1:26">
       <c r="A175" t="n">
-        <v>7339</v>
+        <v>11323</v>
       </c>
       <c r="B175" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C175" t="s">
         <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -6536,19 +6569,19 @@
     </row>
     <row r="176" spans="1:26">
       <c r="A176" t="n">
-        <v>7340</v>
+        <v>11324</v>
       </c>
       <c r="B176" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D176" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E176" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6568,19 +6601,19 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="n">
-        <v>7341</v>
+        <v>11325</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E177" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6600,19 +6633,19 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="n">
-        <v>7342</v>
+        <v>11326</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E178" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -6632,19 +6665,19 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="n">
-        <v>7343</v>
+        <v>11327</v>
       </c>
       <c r="B179" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E179" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6664,19 +6697,19 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="n">
-        <v>7344</v>
+        <v>11328</v>
       </c>
       <c r="B180" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D180" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E180" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6696,10 +6729,10 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="n">
-        <v>7345</v>
+        <v>11329</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
@@ -6708,7 +6741,7 @@
         <v>70</v>
       </c>
       <c r="E181" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6728,19 +6761,19 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="n">
-        <v>7346</v>
+        <v>11330</v>
       </c>
       <c r="B182" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
       </c>
       <c r="D182" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6760,19 +6793,19 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="n">
-        <v>7347</v>
+        <v>11331</v>
       </c>
       <c r="B183" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D183" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E183" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6792,19 +6825,19 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="n">
-        <v>7348</v>
+        <v>11332</v>
       </c>
       <c r="B184" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D184" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E184" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6824,19 +6857,19 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" t="n">
-        <v>7349</v>
+        <v>11333</v>
       </c>
       <c r="B185" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E185" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6856,19 +6889,19 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" t="n">
-        <v>7350</v>
+        <v>11334</v>
       </c>
       <c r="B186" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
         <v>30</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6888,19 +6921,19 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="n">
-        <v>7351</v>
+        <v>11335</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D187" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E187" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6920,19 +6953,19 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" t="n">
-        <v>7352</v>
+        <v>11336</v>
       </c>
       <c r="B188" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D188" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E188" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6952,19 +6985,19 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" t="n">
-        <v>7353</v>
+        <v>11337</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D189" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E189" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -6984,19 +7017,19 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" t="n">
-        <v>7354</v>
+        <v>11338</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D190" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E190" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7016,19 +7049,19 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" t="n">
-        <v>7355</v>
+        <v>11339</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E191" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7048,19 +7081,19 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" t="n">
-        <v>7356</v>
+        <v>11340</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
         <v>36</v>
       </c>
       <c r="D192" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E192" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7080,19 +7113,19 @@
     </row>
     <row r="193" spans="1:26">
       <c r="A193" t="n">
-        <v>7357</v>
+        <v>11341</v>
       </c>
       <c r="B193" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E193" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7112,19 +7145,19 @@
     </row>
     <row r="194" spans="1:26">
       <c r="A194" t="n">
-        <v>7358</v>
+        <v>11342</v>
       </c>
       <c r="B194" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C194" t="s">
         <v>36</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E194" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7144,19 +7177,19 @@
     </row>
     <row r="195" spans="1:26">
       <c r="A195" t="n">
-        <v>7359</v>
+        <v>11343</v>
       </c>
       <c r="B195" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E195" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7176,19 +7209,19 @@
     </row>
     <row r="196" spans="1:26">
       <c r="A196" t="n">
-        <v>7360</v>
+        <v>11344</v>
       </c>
       <c r="B196" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C196" t="s">
         <v>30</v>
       </c>
       <c r="D196" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E196" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7208,19 +7241,19 @@
     </row>
     <row r="197" spans="1:26">
       <c r="A197" t="n">
-        <v>7361</v>
+        <v>11345</v>
       </c>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C197" t="s">
         <v>32</v>
       </c>
       <c r="D197" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E197" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7240,19 +7273,19 @@
     </row>
     <row r="198" spans="1:26">
       <c r="A198" t="n">
-        <v>7362</v>
+        <v>11346</v>
       </c>
       <c r="B198" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E198" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7272,19 +7305,19 @@
     </row>
     <row r="199" spans="1:26">
       <c r="A199" t="n">
-        <v>7363</v>
+        <v>11347</v>
       </c>
       <c r="B199" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E199" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7304,19 +7337,19 @@
     </row>
     <row r="200" spans="1:26">
       <c r="A200" t="n">
-        <v>7364</v>
+        <v>11348</v>
       </c>
       <c r="B200" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C200" t="s">
         <v>30</v>
       </c>
       <c r="D200" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7336,19 +7369,19 @@
     </row>
     <row r="201" spans="1:26">
       <c r="A201" t="n">
-        <v>7365</v>
+        <v>11349</v>
       </c>
       <c r="B201" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C201" t="s">
         <v>32</v>
       </c>
       <c r="D201" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E201" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -7368,19 +7401,19 @@
     </row>
     <row r="202" spans="1:26">
       <c r="A202" t="n">
-        <v>7366</v>
+        <v>11350</v>
       </c>
       <c r="B202" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D202" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E202" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7400,19 +7433,19 @@
     </row>
     <row r="203" spans="1:26">
       <c r="A203" t="n">
-        <v>7367</v>
+        <v>11351</v>
       </c>
       <c r="B203" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D203" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E203" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -7432,19 +7465,19 @@
     </row>
     <row r="204" spans="1:26">
       <c r="A204" t="n">
-        <v>7368</v>
+        <v>11352</v>
       </c>
       <c r="B204" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C204" t="s">
         <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E204" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7464,19 +7497,19 @@
     </row>
     <row r="205" spans="1:26">
       <c r="A205" t="n">
-        <v>7369</v>
+        <v>11353</v>
       </c>
       <c r="B205" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C205" t="s">
         <v>32</v>
       </c>
       <c r="D205" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E205" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7496,19 +7529,19 @@
     </row>
     <row r="206" spans="1:26">
       <c r="A206" t="n">
-        <v>7370</v>
+        <v>11354</v>
       </c>
       <c r="B206" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D206" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7528,19 +7561,19 @@
     </row>
     <row r="207" spans="1:26">
       <c r="A207" t="n">
-        <v>7371</v>
+        <v>11355</v>
       </c>
       <c r="B207" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D207" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E207" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -7560,19 +7593,19 @@
     </row>
     <row r="208" spans="1:26">
       <c r="A208" t="n">
-        <v>7372</v>
+        <v>11356</v>
       </c>
       <c r="B208" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C208" t="s">
         <v>30</v>
       </c>
       <c r="D208" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E208" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -7592,19 +7625,19 @@
     </row>
     <row r="209" spans="1:26">
       <c r="A209" t="n">
-        <v>7373</v>
+        <v>11357</v>
       </c>
       <c r="B209" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C209" t="s">
         <v>32</v>
       </c>
       <c r="D209" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E209" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -7624,19 +7657,19 @@
     </row>
     <row r="210" spans="1:26">
       <c r="A210" t="n">
-        <v>7374</v>
+        <v>11358</v>
       </c>
       <c r="B210" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D210" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E210" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7656,19 +7689,19 @@
     </row>
     <row r="211" spans="1:26">
       <c r="A211" t="n">
-        <v>7375</v>
+        <v>11359</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D211" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E211" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7688,19 +7721,19 @@
     </row>
     <row r="212" spans="1:26">
       <c r="A212" t="n">
-        <v>7376</v>
+        <v>11360</v>
       </c>
       <c r="B212" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
       </c>
       <c r="D212" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E212" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7720,19 +7753,19 @@
     </row>
     <row r="213" spans="1:26">
       <c r="A213" t="n">
-        <v>7377</v>
+        <v>11361</v>
       </c>
       <c r="B213" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C213" t="s">
         <v>32</v>
       </c>
       <c r="D213" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E213" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7752,19 +7785,19 @@
     </row>
     <row r="214" spans="1:26">
       <c r="A214" t="n">
-        <v>7378</v>
+        <v>11362</v>
       </c>
       <c r="B214" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D214" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7784,19 +7817,19 @@
     </row>
     <row r="215" spans="1:26">
       <c r="A215" t="n">
-        <v>7379</v>
+        <v>11363</v>
       </c>
       <c r="B215" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D215" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E215" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7816,19 +7849,19 @@
     </row>
     <row r="216" spans="1:26">
       <c r="A216" t="n">
-        <v>7380</v>
+        <v>11364</v>
       </c>
       <c r="B216" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E216" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -7848,19 +7881,19 @@
     </row>
     <row r="217" spans="1:26">
       <c r="A217" t="n">
-        <v>7381</v>
+        <v>11365</v>
       </c>
       <c r="B217" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C217" t="s">
         <v>32</v>
       </c>
       <c r="D217" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E217" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -7880,19 +7913,19 @@
     </row>
     <row r="218" spans="1:26">
       <c r="A218" t="n">
-        <v>7382</v>
+        <v>11366</v>
       </c>
       <c r="B218" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D218" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E218" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7912,19 +7945,19 @@
     </row>
     <row r="219" spans="1:26">
       <c r="A219" t="n">
-        <v>7383</v>
+        <v>11367</v>
       </c>
       <c r="B219" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E219" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -7944,19 +7977,19 @@
     </row>
     <row r="220" spans="1:26">
       <c r="A220" t="n">
-        <v>7384</v>
+        <v>11368</v>
       </c>
       <c r="B220" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E220" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -7976,19 +8009,19 @@
     </row>
     <row r="221" spans="1:26">
       <c r="A221" t="n">
-        <v>7385</v>
+        <v>11369</v>
       </c>
       <c r="B221" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D221" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E221" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8008,19 +8041,19 @@
     </row>
     <row r="222" spans="1:26">
       <c r="A222" t="n">
-        <v>7386</v>
+        <v>11370</v>
       </c>
       <c r="B222" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E222" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8040,19 +8073,19 @@
     </row>
     <row r="223" spans="1:26">
       <c r="A223" t="n">
-        <v>7387</v>
+        <v>11371</v>
       </c>
       <c r="B223" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C223" t="s">
         <v>30</v>
       </c>
       <c r="D223" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E223" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8072,19 +8105,19 @@
     </row>
     <row r="224" spans="1:26">
       <c r="A224" t="n">
-        <v>7388</v>
+        <v>11372</v>
       </c>
       <c r="B224" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D224" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E224" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -8104,19 +8137,19 @@
     </row>
     <row r="225" spans="1:26">
       <c r="A225" t="n">
-        <v>7389</v>
+        <v>11373</v>
       </c>
       <c r="B225" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C225" t="s">
         <v>30</v>
       </c>
       <c r="D225" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E225" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -8136,19 +8169,19 @@
     </row>
     <row r="226" spans="1:26">
       <c r="A226" t="n">
-        <v>7390</v>
+        <v>11374</v>
       </c>
       <c r="B226" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D226" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E226" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -8168,19 +8201,19 @@
     </row>
     <row r="227" spans="1:26">
       <c r="A227" t="n">
-        <v>7391</v>
+        <v>11375</v>
       </c>
       <c r="B227" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E227" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8200,19 +8233,19 @@
     </row>
     <row r="228" spans="1:26">
       <c r="A228" t="n">
-        <v>7392</v>
+        <v>11376</v>
       </c>
       <c r="B228" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E228" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8232,19 +8265,19 @@
     </row>
     <row r="229" spans="1:26">
       <c r="A229" t="n">
-        <v>7393</v>
+        <v>11377</v>
       </c>
       <c r="B229" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C229" t="s">
         <v>32</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E229" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -8264,10 +8297,10 @@
     </row>
     <row r="230" spans="1:26">
       <c r="A230" t="n">
-        <v>7394</v>
+        <v>11378</v>
       </c>
       <c r="B230" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C230" t="s">
         <v>34</v>
@@ -8276,7 +8309,7 @@
         <v>70</v>
       </c>
       <c r="E230" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -8296,19 +8329,19 @@
     </row>
     <row r="231" spans="1:26">
       <c r="A231" t="n">
-        <v>7395</v>
+        <v>11379</v>
       </c>
       <c r="B231" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E231" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8328,19 +8361,19 @@
     </row>
     <row r="232" spans="1:26">
       <c r="A232" t="n">
-        <v>7396</v>
+        <v>11380</v>
       </c>
       <c r="B232" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D232" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E232" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -8360,19 +8393,19 @@
     </row>
     <row r="233" spans="1:26">
       <c r="A233" t="n">
-        <v>7397</v>
+        <v>11381</v>
       </c>
       <c r="B233" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E233" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8392,19 +8425,19 @@
     </row>
     <row r="234" spans="1:26">
       <c r="A234" t="n">
-        <v>7398</v>
+        <v>11382</v>
       </c>
       <c r="B234" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E234" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -8424,19 +8457,19 @@
     </row>
     <row r="235" spans="1:26">
       <c r="A235" t="n">
-        <v>7399</v>
+        <v>11383</v>
       </c>
       <c r="B235" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
       </c>
       <c r="D235" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E235" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -8456,19 +8489,19 @@
     </row>
     <row r="236" spans="1:26">
       <c r="A236" t="n">
-        <v>7400</v>
+        <v>11384</v>
       </c>
       <c r="B236" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C236" t="s">
         <v>32</v>
       </c>
       <c r="D236" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E236" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -8488,19 +8521,19 @@
     </row>
     <row r="237" spans="1:26">
       <c r="A237" t="n">
-        <v>7401</v>
+        <v>11385</v>
       </c>
       <c r="B237" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D237" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E237" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8520,19 +8553,19 @@
     </row>
     <row r="238" spans="1:26">
       <c r="A238" t="n">
-        <v>7402</v>
+        <v>11386</v>
       </c>
       <c r="B238" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C238" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D238" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E238" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8552,19 +8585,19 @@
     </row>
     <row r="239" spans="1:26">
       <c r="A239" t="n">
-        <v>7403</v>
+        <v>11387</v>
       </c>
       <c r="B239" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D239" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E239" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -8584,19 +8617,19 @@
     </row>
     <row r="240" spans="1:26">
       <c r="A240" t="n">
-        <v>7404</v>
+        <v>11388</v>
       </c>
       <c r="B240" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C240" t="s">
         <v>30</v>
       </c>
       <c r="D240" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E240" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -8616,19 +8649,19 @@
     </row>
     <row r="241" spans="1:26">
       <c r="A241" t="n">
-        <v>7405</v>
+        <v>11389</v>
       </c>
       <c r="B241" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D241" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E241" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8648,19 +8681,19 @@
     </row>
     <row r="242" spans="1:26">
       <c r="A242" t="n">
-        <v>7406</v>
+        <v>11390</v>
       </c>
       <c r="B242" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C242" t="s">
         <v>30</v>
       </c>
       <c r="D242" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E242" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8680,19 +8713,19 @@
     </row>
     <row r="243" spans="1:26">
       <c r="A243" t="n">
-        <v>7407</v>
+        <v>11391</v>
       </c>
       <c r="B243" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D243" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E243" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8712,19 +8745,19 @@
     </row>
     <row r="244" spans="1:26">
       <c r="A244" t="n">
-        <v>7408</v>
+        <v>11392</v>
       </c>
       <c r="B244" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C244" t="s">
         <v>30</v>
       </c>
       <c r="D244" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E244" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -8744,19 +8777,19 @@
     </row>
     <row r="245" spans="1:26">
       <c r="A245" t="n">
-        <v>7409</v>
+        <v>11393</v>
       </c>
       <c r="B245" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C245" t="s">
         <v>32</v>
       </c>
       <c r="D245" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E245" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -8776,19 +8809,19 @@
     </row>
     <row r="246" spans="1:26">
       <c r="A246" t="n">
-        <v>7410</v>
+        <v>11394</v>
       </c>
       <c r="B246" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D246" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E246" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -8808,19 +8841,19 @@
     </row>
     <row r="247" spans="1:26">
       <c r="A247" t="n">
-        <v>7411</v>
+        <v>11395</v>
       </c>
       <c r="B247" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D247" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E247" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -8840,19 +8873,19 @@
     </row>
     <row r="248" spans="1:26">
       <c r="A248" t="n">
-        <v>7412</v>
+        <v>11396</v>
       </c>
       <c r="B248" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
       </c>
       <c r="D248" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E248" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -8872,19 +8905,19 @@
     </row>
     <row r="249" spans="1:26">
       <c r="A249" t="n">
-        <v>7413</v>
+        <v>11397</v>
       </c>
       <c r="B249" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C249" t="s">
         <v>32</v>
       </c>
       <c r="D249" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E249" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -8904,19 +8937,19 @@
     </row>
     <row r="250" spans="1:26">
       <c r="A250" t="n">
-        <v>7414</v>
+        <v>11398</v>
       </c>
       <c r="B250" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D250" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E250" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -8936,19 +8969,19 @@
     </row>
     <row r="251" spans="1:26">
       <c r="A251" t="n">
-        <v>7415</v>
+        <v>11399</v>
       </c>
       <c r="B251" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D251" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E251" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -8968,19 +9001,19 @@
     </row>
     <row r="252" spans="1:26">
       <c r="A252" t="n">
-        <v>7416</v>
+        <v>11400</v>
       </c>
       <c r="B252" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C252" t="s">
         <v>30</v>
       </c>
       <c r="D252" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E252" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9000,19 +9033,19 @@
     </row>
     <row r="253" spans="1:26">
       <c r="A253" t="n">
-        <v>7417</v>
+        <v>11401</v>
       </c>
       <c r="B253" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D253" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E253" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9032,19 +9065,19 @@
     </row>
     <row r="254" spans="1:26">
       <c r="A254" t="n">
-        <v>7418</v>
+        <v>11402</v>
       </c>
       <c r="B254" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C254" t="s">
         <v>30</v>
       </c>
       <c r="D254" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E254" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9064,19 +9097,19 @@
     </row>
     <row r="255" spans="1:26">
       <c r="A255" t="n">
-        <v>7419</v>
+        <v>11403</v>
       </c>
       <c r="B255" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C255" t="s">
         <v>32</v>
       </c>
       <c r="D255" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E255" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -9096,19 +9129,19 @@
     </row>
     <row r="256" spans="1:26">
       <c r="A256" t="n">
-        <v>7420</v>
+        <v>11404</v>
       </c>
       <c r="B256" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D256" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E256" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9128,19 +9161,19 @@
     </row>
     <row r="257" spans="1:26">
       <c r="A257" t="n">
-        <v>7421</v>
+        <v>11405</v>
       </c>
       <c r="B257" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D257" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E257" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -9160,19 +9193,19 @@
     </row>
     <row r="258" spans="1:26">
       <c r="A258" t="n">
-        <v>7422</v>
+        <v>11406</v>
       </c>
       <c r="B258" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C258" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D258" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E258" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9192,19 +9225,19 @@
     </row>
     <row r="259" spans="1:26">
       <c r="A259" t="n">
-        <v>7423</v>
+        <v>11407</v>
       </c>
       <c r="B259" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D259" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E259" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -9224,19 +9257,19 @@
     </row>
     <row r="260" spans="1:26">
       <c r="A260" t="n">
-        <v>7424</v>
+        <v>11408</v>
       </c>
       <c r="B260" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C260" t="s">
         <v>38</v>
       </c>
       <c r="D260" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E260" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -9256,19 +9289,19 @@
     </row>
     <row r="261" spans="1:26">
       <c r="A261" t="n">
-        <v>7425</v>
+        <v>11409</v>
       </c>
       <c r="B261" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C261" t="s">
         <v>40</v>
       </c>
       <c r="D261" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E261" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -9288,19 +9321,19 @@
     </row>
     <row r="262" spans="1:26">
       <c r="A262" t="n">
-        <v>7426</v>
+        <v>11410</v>
       </c>
       <c r="B262" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D262" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E262" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -9320,19 +9353,19 @@
     </row>
     <row r="263" spans="1:26">
       <c r="A263" t="n">
-        <v>7427</v>
+        <v>11411</v>
       </c>
       <c r="B263" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C263" t="s">
         <v>30</v>
       </c>
       <c r="D263" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E263" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -9352,19 +9385,19 @@
     </row>
     <row r="264" spans="1:26">
       <c r="A264" t="n">
-        <v>7428</v>
+        <v>11412</v>
       </c>
       <c r="B264" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C264" t="s">
         <v>32</v>
       </c>
       <c r="D264" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E264" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9384,19 +9417,19 @@
     </row>
     <row r="265" spans="1:26">
       <c r="A265" t="n">
-        <v>7429</v>
+        <v>11413</v>
       </c>
       <c r="B265" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D265" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E265" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -9416,19 +9449,19 @@
     </row>
     <row r="266" spans="1:26">
       <c r="A266" t="n">
-        <v>7430</v>
+        <v>11414</v>
       </c>
       <c r="B266" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D266" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E266" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9448,19 +9481,19 @@
     </row>
     <row r="267" spans="1:26">
       <c r="A267" t="n">
-        <v>7431</v>
+        <v>11415</v>
       </c>
       <c r="B267" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C267" t="s">
         <v>30</v>
       </c>
       <c r="D267" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E267" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -9480,19 +9513,19 @@
     </row>
     <row r="268" spans="1:26">
       <c r="A268" t="n">
-        <v>7432</v>
+        <v>11416</v>
       </c>
       <c r="B268" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C268" t="s">
         <v>32</v>
       </c>
       <c r="D268" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E268" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -9512,19 +9545,19 @@
     </row>
     <row r="269" spans="1:26">
       <c r="A269" t="n">
-        <v>7433</v>
+        <v>11417</v>
       </c>
       <c r="B269" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D269" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E269" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -9544,19 +9577,19 @@
     </row>
     <row r="270" spans="1:26">
       <c r="A270" t="n">
-        <v>7434</v>
+        <v>11418</v>
       </c>
       <c r="B270" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D270" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E270" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9576,19 +9609,19 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" t="n">
-        <v>7435</v>
+        <v>11419</v>
       </c>
       <c r="B271" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C271" t="s">
         <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E271" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9608,19 +9641,19 @@
     </row>
     <row r="272" spans="1:26">
       <c r="A272" t="n">
-        <v>7436</v>
+        <v>11420</v>
       </c>
       <c r="B272" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C272" t="s">
         <v>32</v>
       </c>
       <c r="D272" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E272" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -9640,19 +9673,19 @@
     </row>
     <row r="273" spans="1:26">
       <c r="A273" t="n">
-        <v>7437</v>
+        <v>11421</v>
       </c>
       <c r="B273" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D273" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E273" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -9672,19 +9705,19 @@
     </row>
     <row r="274" spans="1:26">
       <c r="A274" t="n">
-        <v>7438</v>
+        <v>11422</v>
       </c>
       <c r="B274" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D274" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E274" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -9704,19 +9737,19 @@
     </row>
     <row r="275" spans="1:26">
       <c r="A275" t="n">
-        <v>7439</v>
+        <v>11423</v>
       </c>
       <c r="B275" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
       </c>
       <c r="D275" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E275" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -9736,19 +9769,19 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" t="n">
-        <v>7440</v>
+        <v>11424</v>
       </c>
       <c r="B276" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C276" t="s">
         <v>32</v>
       </c>
       <c r="D276" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E276" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -9768,19 +9801,19 @@
     </row>
     <row r="277" spans="1:26">
       <c r="A277" t="n">
-        <v>7441</v>
+        <v>11425</v>
       </c>
       <c r="B277" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D277" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E277" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -9800,19 +9833,19 @@
     </row>
     <row r="278" spans="1:26">
       <c r="A278" t="n">
-        <v>7442</v>
+        <v>11426</v>
       </c>
       <c r="B278" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D278" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E278" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -9832,19 +9865,19 @@
     </row>
     <row r="279" spans="1:26">
       <c r="A279" t="n">
-        <v>7443</v>
+        <v>11427</v>
       </c>
       <c r="B279" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C279" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D279" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E279" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -9864,19 +9897,19 @@
     </row>
     <row r="280" spans="1:26">
       <c r="A280" t="n">
-        <v>7444</v>
+        <v>11428</v>
       </c>
       <c r="B280" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C280" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D280" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E280" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -9896,19 +9929,19 @@
     </row>
     <row r="281" spans="1:26">
       <c r="A281" t="n">
-        <v>7445</v>
+        <v>11429</v>
       </c>
       <c r="B281" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C281" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D281" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E281" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -9928,19 +9961,19 @@
     </row>
     <row r="282" spans="1:26">
       <c r="A282" t="n">
-        <v>7446</v>
+        <v>11430</v>
       </c>
       <c r="B282" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
       </c>
       <c r="D282" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E282" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -9960,19 +9993,19 @@
     </row>
     <row r="283" spans="1:26">
       <c r="A283" t="n">
-        <v>7447</v>
+        <v>11431</v>
       </c>
       <c r="B283" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C283" t="s">
         <v>32</v>
       </c>
       <c r="D283" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E283" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -9992,19 +10025,19 @@
     </row>
     <row r="284" spans="1:26">
       <c r="A284" t="n">
-        <v>7448</v>
+        <v>11432</v>
       </c>
       <c r="B284" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C284" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D284" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E284" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -10024,19 +10057,19 @@
     </row>
     <row r="285" spans="1:26">
       <c r="A285" t="n">
-        <v>7449</v>
+        <v>11433</v>
       </c>
       <c r="B285" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D285" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E285" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -10056,19 +10089,19 @@
     </row>
     <row r="286" spans="1:26">
       <c r="A286" t="n">
-        <v>7450</v>
+        <v>11434</v>
       </c>
       <c r="B286" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D286" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E286" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -10088,19 +10121,19 @@
     </row>
     <row r="287" spans="1:26">
       <c r="A287" t="n">
-        <v>7451</v>
+        <v>11435</v>
       </c>
       <c r="B287" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C287" t="s">
         <v>30</v>
       </c>
       <c r="D287" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E287" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -10120,19 +10153,19 @@
     </row>
     <row r="288" spans="1:26">
       <c r="A288" t="n">
-        <v>7452</v>
+        <v>11436</v>
       </c>
       <c r="B288" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C288" t="s">
         <v>32</v>
       </c>
       <c r="D288" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E288" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10152,19 +10185,19 @@
     </row>
     <row r="289" spans="1:26">
       <c r="A289" t="n">
-        <v>7453</v>
+        <v>11437</v>
       </c>
       <c r="B289" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C289" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D289" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E289" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -10184,19 +10217,19 @@
     </row>
     <row r="290" spans="1:26">
       <c r="A290" t="n">
-        <v>7454</v>
+        <v>11438</v>
       </c>
       <c r="B290" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C290" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D290" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E290" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -10216,19 +10249,19 @@
     </row>
     <row r="291" spans="1:26">
       <c r="A291" t="n">
-        <v>7455</v>
+        <v>11439</v>
       </c>
       <c r="B291" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C291" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D291" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E291" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -10248,19 +10281,19 @@
     </row>
     <row r="292" spans="1:26">
       <c r="A292" t="n">
-        <v>7456</v>
+        <v>11440</v>
       </c>
       <c r="B292" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C292" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D292" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E292" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -10280,19 +10313,19 @@
     </row>
     <row r="293" spans="1:26">
       <c r="A293" t="n">
-        <v>7457</v>
+        <v>11441</v>
       </c>
       <c r="B293" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C293" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D293" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E293" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -10312,19 +10345,19 @@
     </row>
     <row r="294" spans="1:26">
       <c r="A294" t="n">
-        <v>7458</v>
+        <v>11442</v>
       </c>
       <c r="B294" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C294" t="s">
         <v>30</v>
       </c>
       <c r="D294" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E294" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10344,19 +10377,19 @@
     </row>
     <row r="295" spans="1:26">
       <c r="A295" t="n">
-        <v>7459</v>
+        <v>11443</v>
       </c>
       <c r="B295" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C295" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D295" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E295" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -10376,19 +10409,19 @@
     </row>
     <row r="296" spans="1:26">
       <c r="A296" t="n">
-        <v>7460</v>
+        <v>11444</v>
       </c>
       <c r="B296" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C296" t="s">
         <v>30</v>
       </c>
       <c r="D296" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E296" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -10408,19 +10441,19 @@
     </row>
     <row r="297" spans="1:26">
       <c r="A297" t="n">
-        <v>7461</v>
+        <v>11445</v>
       </c>
       <c r="B297" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C297" t="s">
         <v>32</v>
       </c>
       <c r="D297" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E297" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -10440,19 +10473,19 @@
     </row>
     <row r="298" spans="1:26">
       <c r="A298" t="n">
-        <v>7462</v>
+        <v>11446</v>
       </c>
       <c r="B298" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C298" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D298" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E298" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -10472,19 +10505,19 @@
     </row>
     <row r="299" spans="1:26">
       <c r="A299" t="n">
-        <v>7463</v>
+        <v>11447</v>
       </c>
       <c r="B299" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C299" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D299" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E299" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -10504,19 +10537,19 @@
     </row>
     <row r="300" spans="1:26">
       <c r="A300" t="n">
-        <v>7464</v>
+        <v>11448</v>
       </c>
       <c r="B300" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C300" t="s">
         <v>30</v>
       </c>
       <c r="D300" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E300" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -10536,19 +10569,19 @@
     </row>
     <row r="301" spans="1:26">
       <c r="A301" t="n">
-        <v>7465</v>
+        <v>11449</v>
       </c>
       <c r="B301" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C301" t="s">
         <v>32</v>
       </c>
       <c r="D301" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E301" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -10568,19 +10601,19 @@
     </row>
     <row r="302" spans="1:26">
       <c r="A302" t="n">
-        <v>7466</v>
+        <v>11450</v>
       </c>
       <c r="B302" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C302" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D302" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E302" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -10600,19 +10633,19 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" t="n">
-        <v>7467</v>
+        <v>11451</v>
       </c>
       <c r="B303" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C303" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D303" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E303" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -10632,19 +10665,19 @@
     </row>
     <row r="304" spans="1:26">
       <c r="A304" t="n">
-        <v>7468</v>
+        <v>11452</v>
       </c>
       <c r="B304" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C304" t="s">
         <v>30</v>
       </c>
       <c r="D304" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E304" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -10664,19 +10697,19 @@
     </row>
     <row r="305" spans="1:26">
       <c r="A305" t="n">
-        <v>7469</v>
+        <v>11453</v>
       </c>
       <c r="B305" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C305" t="s">
         <v>32</v>
       </c>
       <c r="D305" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E305" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -10696,19 +10729,19 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" t="n">
-        <v>7470</v>
+        <v>11454</v>
       </c>
       <c r="B306" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C306" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D306" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E306" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -10728,19 +10761,19 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" t="n">
-        <v>7471</v>
+        <v>11455</v>
       </c>
       <c r="B307" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C307" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D307" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E307" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -10760,19 +10793,19 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" t="n">
-        <v>7472</v>
+        <v>11456</v>
       </c>
       <c r="B308" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C308" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D308" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E308" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -10792,19 +10825,19 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" t="n">
-        <v>7473</v>
+        <v>11457</v>
       </c>
       <c r="B309" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C309" t="s">
         <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E309" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -10824,19 +10857,19 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" t="n">
-        <v>7474</v>
+        <v>11458</v>
       </c>
       <c r="B310" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C310" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D310" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E310" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -10856,19 +10889,19 @@
     </row>
     <row r="311" spans="1:26">
       <c r="A311" t="n">
-        <v>7475</v>
+        <v>11459</v>
       </c>
       <c r="B311" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C311" t="s">
         <v>30</v>
       </c>
       <c r="D311" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E311" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -10888,19 +10921,19 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" t="n">
-        <v>7476</v>
+        <v>11460</v>
       </c>
       <c r="B312" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C312" t="s">
         <v>32</v>
       </c>
       <c r="D312" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E312" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -10920,19 +10953,19 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" t="n">
-        <v>7477</v>
+        <v>11461</v>
       </c>
       <c r="B313" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C313" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D313" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E313" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -10952,19 +10985,19 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" t="n">
-        <v>7478</v>
+        <v>11462</v>
       </c>
       <c r="B314" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C314" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D314" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E314" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -10984,19 +11017,19 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" t="n">
-        <v>7479</v>
+        <v>11463</v>
       </c>
       <c r="B315" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C315" t="s">
         <v>30</v>
       </c>
       <c r="D315" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E315" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -11016,19 +11049,19 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" t="n">
-        <v>7480</v>
+        <v>11464</v>
       </c>
       <c r="B316" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C316" t="s">
         <v>32</v>
       </c>
       <c r="D316" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E316" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11048,19 +11081,19 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" t="n">
-        <v>7481</v>
+        <v>11465</v>
       </c>
       <c r="B317" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C317" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D317" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E317" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11080,19 +11113,19 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" t="n">
-        <v>7482</v>
+        <v>11466</v>
       </c>
       <c r="B318" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C318" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D318" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E318" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -11112,19 +11145,19 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" t="n">
-        <v>7483</v>
+        <v>11467</v>
       </c>
       <c r="B319" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C319" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D319" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E319" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -11144,19 +11177,19 @@
     </row>
     <row r="320" spans="1:26">
       <c r="A320" t="n">
-        <v>7484</v>
+        <v>11468</v>
       </c>
       <c r="B320" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C320" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D320" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E320" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -11176,19 +11209,19 @@
     </row>
     <row r="321" spans="1:26">
       <c r="A321" t="n">
-        <v>7485</v>
+        <v>11469</v>
       </c>
       <c r="B321" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C321" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D321" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E321" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -11208,19 +11241,19 @@
     </row>
     <row r="322" spans="1:26">
       <c r="A322" t="n">
-        <v>7486</v>
+        <v>11470</v>
       </c>
       <c r="B322" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C322" t="s">
         <v>30</v>
       </c>
       <c r="D322" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E322" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -11240,19 +11273,19 @@
     </row>
     <row r="323" spans="1:26">
       <c r="A323" t="n">
-        <v>7487</v>
+        <v>11471</v>
       </c>
       <c r="B323" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C323" t="s">
         <v>32</v>
       </c>
       <c r="D323" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E323" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -11272,19 +11305,19 @@
     </row>
     <row r="324" spans="1:26">
       <c r="A324" t="n">
-        <v>7488</v>
+        <v>11472</v>
       </c>
       <c r="B324" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C324" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D324" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E324" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -11304,19 +11337,19 @@
     </row>
     <row r="325" spans="1:26">
       <c r="A325" t="n">
-        <v>7489</v>
+        <v>11473</v>
       </c>
       <c r="B325" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C325" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D325" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E325" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -11336,19 +11369,19 @@
     </row>
     <row r="326" spans="1:26">
       <c r="A326" t="n">
-        <v>7490</v>
+        <v>11474</v>
       </c>
       <c r="B326" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C326" t="s">
         <v>30</v>
       </c>
       <c r="D326" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E326" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -11368,19 +11401,19 @@
     </row>
     <row r="327" spans="1:26">
       <c r="A327" t="n">
-        <v>7491</v>
+        <v>11475</v>
       </c>
       <c r="B327" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C327" t="s">
         <v>32</v>
       </c>
       <c r="D327" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E327" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -11400,19 +11433,19 @@
     </row>
     <row r="328" spans="1:26">
       <c r="A328" t="n">
-        <v>7492</v>
+        <v>11476</v>
       </c>
       <c r="B328" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C328" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D328" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E328" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -11432,19 +11465,19 @@
     </row>
     <row r="329" spans="1:26">
       <c r="A329" t="n">
-        <v>7493</v>
+        <v>11477</v>
       </c>
       <c r="B329" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C329" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D329" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E329" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -11464,19 +11497,19 @@
     </row>
     <row r="330" spans="1:26">
       <c r="A330" t="n">
-        <v>7494</v>
+        <v>11478</v>
       </c>
       <c r="B330" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C330" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D330" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E330" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -11496,19 +11529,19 @@
     </row>
     <row r="331" spans="1:26">
       <c r="A331" t="n">
-        <v>7495</v>
+        <v>11479</v>
       </c>
       <c r="B331" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C331" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E331" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -11528,19 +11561,19 @@
     </row>
     <row r="332" spans="1:26">
       <c r="A332" t="n">
-        <v>7496</v>
+        <v>11480</v>
       </c>
       <c r="B332" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C332" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D332" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E332" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -11560,19 +11593,19 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" t="n">
-        <v>7497</v>
+        <v>11481</v>
       </c>
       <c r="B333" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C333" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D333" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E333" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -11592,19 +11625,19 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" t="n">
-        <v>7498</v>
+        <v>11482</v>
       </c>
       <c r="B334" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C334" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D334" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E334" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -11624,19 +11657,19 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" t="n">
-        <v>7499</v>
+        <v>11483</v>
       </c>
       <c r="B335" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C335" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D335" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E335" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -11656,19 +11689,19 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" t="n">
-        <v>7500</v>
+        <v>11484</v>
       </c>
       <c r="B336" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C336" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D336" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E336" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -11688,19 +11721,19 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" t="n">
-        <v>7501</v>
+        <v>11485</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C337" t="s">
         <v>30</v>
       </c>
       <c r="D337" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E337" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -11720,19 +11753,19 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" t="n">
-        <v>7502</v>
+        <v>11486</v>
       </c>
       <c r="B338" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C338" t="s">
         <v>32</v>
       </c>
       <c r="D338" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E338" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -11752,19 +11785,19 @@
     </row>
     <row r="339" spans="1:26">
       <c r="A339" t="n">
-        <v>7503</v>
+        <v>11487</v>
       </c>
       <c r="B339" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C339" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D339" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E339" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -11784,19 +11817,19 @@
     </row>
     <row r="340" spans="1:26">
       <c r="A340" t="n">
-        <v>7504</v>
+        <v>11488</v>
       </c>
       <c r="B340" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C340" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D340" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E340" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -11816,19 +11849,19 @@
     </row>
     <row r="341" spans="1:26">
       <c r="A341" t="n">
-        <v>7505</v>
+        <v>11489</v>
       </c>
       <c r="B341" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C341" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D341" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E341" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -11848,19 +11881,19 @@
     </row>
     <row r="342" spans="1:26">
       <c r="A342" t="n">
-        <v>7506</v>
+        <v>11490</v>
       </c>
       <c r="B342" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C342" t="s">
         <v>30</v>
       </c>
       <c r="D342" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E342" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -11880,19 +11913,19 @@
     </row>
     <row r="343" spans="1:26">
       <c r="A343" t="n">
-        <v>7507</v>
+        <v>11491</v>
       </c>
       <c r="B343" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C343" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D343" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E343" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -11912,19 +11945,19 @@
     </row>
     <row r="344" spans="1:26">
       <c r="A344" t="n">
-        <v>7508</v>
+        <v>11492</v>
       </c>
       <c r="B344" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C344" t="s">
         <v>30</v>
       </c>
       <c r="D344" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E344" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -11944,19 +11977,19 @@
     </row>
     <row r="345" spans="1:26">
       <c r="A345" t="n">
-        <v>7509</v>
+        <v>11493</v>
       </c>
       <c r="B345" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C345" t="s">
         <v>32</v>
       </c>
       <c r="D345" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E345" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
@@ -11976,19 +12009,19 @@
     </row>
     <row r="346" spans="1:26">
       <c r="A346" t="n">
-        <v>7510</v>
+        <v>11494</v>
       </c>
       <c r="B346" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C346" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D346" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E346" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -12008,19 +12041,19 @@
     </row>
     <row r="347" spans="1:26">
       <c r="A347" t="n">
-        <v>7511</v>
+        <v>11495</v>
       </c>
       <c r="B347" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D347" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E347" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -12040,19 +12073,19 @@
     </row>
     <row r="348" spans="1:26">
       <c r="A348" t="n">
-        <v>7512</v>
+        <v>11496</v>
       </c>
       <c r="B348" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C348" t="s">
         <v>30</v>
       </c>
       <c r="D348" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E348" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -12072,19 +12105,19 @@
     </row>
     <row r="349" spans="1:26">
       <c r="A349" t="n">
-        <v>7513</v>
+        <v>11497</v>
       </c>
       <c r="B349" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C349" t="s">
         <v>32</v>
       </c>
       <c r="D349" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E349" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -12104,19 +12137,19 @@
     </row>
     <row r="350" spans="1:26">
       <c r="A350" t="n">
-        <v>7514</v>
+        <v>11498</v>
       </c>
       <c r="B350" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C350" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D350" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E350" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -12136,19 +12169,19 @@
     </row>
     <row r="351" spans="1:26">
       <c r="A351" t="n">
-        <v>7515</v>
+        <v>11499</v>
       </c>
       <c r="B351" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C351" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D351" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E351" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -12168,19 +12201,19 @@
     </row>
     <row r="352" spans="1:26">
       <c r="A352" t="n">
-        <v>7516</v>
+        <v>11500</v>
       </c>
       <c r="B352" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C352" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D352" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E352" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -12200,19 +12233,19 @@
     </row>
     <row r="353" spans="1:26">
       <c r="A353" t="n">
-        <v>7517</v>
+        <v>11501</v>
       </c>
       <c r="B353" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C353" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D353" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E353" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -12232,19 +12265,19 @@
     </row>
     <row r="354" spans="1:26">
       <c r="A354" t="n">
-        <v>7518</v>
+        <v>11502</v>
       </c>
       <c r="B354" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C354" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D354" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E354" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -12264,19 +12297,19 @@
     </row>
     <row r="355" spans="1:26">
       <c r="A355" t="n">
-        <v>7519</v>
+        <v>11503</v>
       </c>
       <c r="B355" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C355" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D355" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E355" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -12296,19 +12329,19 @@
     </row>
     <row r="356" spans="1:26">
       <c r="A356" t="n">
-        <v>7520</v>
+        <v>11504</v>
       </c>
       <c r="B356" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C356" t="s">
         <v>30</v>
       </c>
       <c r="D356" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E356" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -12328,19 +12361,19 @@
     </row>
     <row r="357" spans="1:26">
       <c r="A357" t="n">
-        <v>7521</v>
+        <v>11505</v>
       </c>
       <c r="B357" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C357" t="s">
         <v>32</v>
       </c>
       <c r="D357" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E357" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -12360,19 +12393,19 @@
     </row>
     <row r="358" spans="1:26">
       <c r="A358" t="n">
-        <v>7522</v>
+        <v>11506</v>
       </c>
       <c r="B358" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C358" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D358" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E358" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -12392,19 +12425,19 @@
     </row>
     <row r="359" spans="1:26">
       <c r="A359" t="n">
-        <v>7523</v>
+        <v>11507</v>
       </c>
       <c r="B359" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C359" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D359" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E359" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -12424,19 +12457,19 @@
     </row>
     <row r="360" spans="1:26">
       <c r="A360" t="n">
-        <v>7524</v>
+        <v>11508</v>
       </c>
       <c r="B360" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C360" t="s">
         <v>30</v>
       </c>
       <c r="D360" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E360" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -12456,19 +12489,19 @@
     </row>
     <row r="361" spans="1:26">
       <c r="A361" t="n">
-        <v>7525</v>
+        <v>11509</v>
       </c>
       <c r="B361" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C361" t="s">
         <v>32</v>
       </c>
       <c r="D361" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E361" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -12488,19 +12521,19 @@
     </row>
     <row r="362" spans="1:26">
       <c r="A362" t="n">
-        <v>7526</v>
+        <v>11510</v>
       </c>
       <c r="B362" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C362" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D362" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E362" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -12520,19 +12553,19 @@
     </row>
     <row r="363" spans="1:26">
       <c r="A363" t="n">
-        <v>7527</v>
+        <v>11511</v>
       </c>
       <c r="B363" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C363" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D363" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E363" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -12552,19 +12585,19 @@
     </row>
     <row r="364" spans="1:26">
       <c r="A364" t="n">
-        <v>7528</v>
+        <v>11512</v>
       </c>
       <c r="B364" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C364" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D364" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E364" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -12584,19 +12617,19 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" t="n">
-        <v>7529</v>
+        <v>11513</v>
       </c>
       <c r="B365" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C365" t="s">
         <v>30</v>
       </c>
       <c r="D365" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E365" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
@@ -12616,19 +12649,19 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" t="n">
-        <v>7530</v>
+        <v>11514</v>
       </c>
       <c r="B366" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C366" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D366" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E366" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -12648,19 +12681,19 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" t="n">
-        <v>7531</v>
+        <v>11515</v>
       </c>
       <c r="B367" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C367" t="s">
         <v>30</v>
       </c>
       <c r="D367" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E367" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -12680,19 +12713,19 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" t="n">
-        <v>7532</v>
+        <v>11516</v>
       </c>
       <c r="B368" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C368" t="s">
         <v>32</v>
       </c>
       <c r="D368" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E368" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
@@ -12712,19 +12745,19 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" t="n">
-        <v>7533</v>
+        <v>11517</v>
       </c>
       <c r="B369" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C369" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D369" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E369" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -12744,19 +12777,19 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" t="n">
-        <v>7534</v>
+        <v>11518</v>
       </c>
       <c r="B370" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C370" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D370" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E370" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -12776,19 +12809,19 @@
     </row>
     <row r="371" spans="1:26">
       <c r="A371" t="n">
-        <v>7535</v>
+        <v>11519</v>
       </c>
       <c r="B371" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C371" t="s">
         <v>30</v>
       </c>
       <c r="D371" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E371" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -12808,19 +12841,19 @@
     </row>
     <row r="372" spans="1:26">
       <c r="A372" t="n">
-        <v>7536</v>
+        <v>11520</v>
       </c>
       <c r="B372" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C372" t="s">
         <v>32</v>
       </c>
       <c r="D372" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E372" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -12840,19 +12873,19 @@
     </row>
     <row r="373" spans="1:26">
       <c r="A373" t="n">
-        <v>7537</v>
+        <v>11521</v>
       </c>
       <c r="B373" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C373" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D373" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E373" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -12872,19 +12905,19 @@
     </row>
     <row r="374" spans="1:26">
       <c r="A374" t="n">
-        <v>7538</v>
+        <v>11522</v>
       </c>
       <c r="B374" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C374" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D374" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E374" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -12904,19 +12937,19 @@
     </row>
     <row r="375" spans="1:26">
       <c r="A375" t="n">
-        <v>7539</v>
+        <v>11523</v>
       </c>
       <c r="B375" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C375" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D375" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E375" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -12936,19 +12969,19 @@
     </row>
     <row r="376" spans="1:26">
       <c r="A376" t="n">
-        <v>7540</v>
+        <v>11524</v>
       </c>
       <c r="B376" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C376" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D376" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E376" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -12968,19 +13001,19 @@
     </row>
     <row r="377" spans="1:26">
       <c r="A377" t="n">
-        <v>7541</v>
+        <v>11525</v>
       </c>
       <c r="B377" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C377" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D377" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E377" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -13000,19 +13033,19 @@
     </row>
     <row r="378" spans="1:26">
       <c r="A378" t="n">
-        <v>7542</v>
+        <v>11526</v>
       </c>
       <c r="B378" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C378" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D378" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E378" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -13032,19 +13065,19 @@
     </row>
     <row r="379" spans="1:26">
       <c r="A379" t="n">
-        <v>7543</v>
+        <v>11527</v>
       </c>
       <c r="B379" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C379" t="s">
         <v>30</v>
       </c>
       <c r="D379" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E379" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -13064,19 +13097,19 @@
     </row>
     <row r="380" spans="1:26">
       <c r="A380" t="n">
-        <v>7544</v>
+        <v>11528</v>
       </c>
       <c r="B380" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C380" t="s">
         <v>32</v>
       </c>
       <c r="D380" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E380" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
@@ -13096,19 +13129,19 @@
     </row>
     <row r="381" spans="1:26">
       <c r="A381" t="n">
-        <v>7545</v>
+        <v>11529</v>
       </c>
       <c r="B381" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C381" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D381" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E381" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
@@ -13128,19 +13161,19 @@
     </row>
     <row r="382" spans="1:26">
       <c r="A382" t="n">
-        <v>7546</v>
+        <v>11530</v>
       </c>
       <c r="B382" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C382" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D382" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E382" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -13160,19 +13193,19 @@
     </row>
     <row r="383" spans="1:26">
       <c r="A383" t="n">
-        <v>7547</v>
+        <v>11531</v>
       </c>
       <c r="B383" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C383" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D383" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E383" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -13192,19 +13225,19 @@
     </row>
     <row r="384" spans="1:26">
       <c r="A384" t="n">
-        <v>7548</v>
+        <v>11532</v>
       </c>
       <c r="B384" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C384" t="s">
         <v>30</v>
       </c>
       <c r="D384" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E384" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -13224,19 +13257,19 @@
     </row>
     <row r="385" spans="1:26">
       <c r="A385" t="n">
-        <v>7549</v>
+        <v>11533</v>
       </c>
       <c r="B385" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C385" t="s">
         <v>32</v>
       </c>
       <c r="D385" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E385" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -13256,19 +13289,19 @@
     </row>
     <row r="386" spans="1:26">
       <c r="A386" t="n">
-        <v>7550</v>
+        <v>11534</v>
       </c>
       <c r="B386" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C386" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D386" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E386" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -13288,19 +13321,19 @@
     </row>
     <row r="387" spans="1:26">
       <c r="A387" t="n">
-        <v>7551</v>
+        <v>11535</v>
       </c>
       <c r="B387" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C387" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D387" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E387" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -13320,19 +13353,19 @@
     </row>
     <row r="388" spans="1:26">
       <c r="A388" t="n">
-        <v>7552</v>
+        <v>11536</v>
       </c>
       <c r="B388" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C388" t="s">
         <v>30</v>
       </c>
       <c r="D388" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E388" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -13352,19 +13385,19 @@
     </row>
     <row r="389" spans="1:26">
       <c r="A389" t="n">
-        <v>7553</v>
+        <v>11537</v>
       </c>
       <c r="B389" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C389" t="s">
         <v>32</v>
       </c>
       <c r="D389" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E389" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -13384,19 +13417,19 @@
     </row>
     <row r="390" spans="1:26">
       <c r="A390" t="n">
-        <v>7554</v>
+        <v>11538</v>
       </c>
       <c r="B390" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C390" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D390" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E390" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -13416,19 +13449,19 @@
     </row>
     <row r="391" spans="1:26">
       <c r="A391" t="n">
-        <v>7555</v>
+        <v>11539</v>
       </c>
       <c r="B391" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C391" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D391" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E391" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -13448,19 +13481,19 @@
     </row>
     <row r="392" spans="1:26">
       <c r="A392" t="n">
-        <v>7556</v>
+        <v>11540</v>
       </c>
       <c r="B392" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C392" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D392" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E392" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -13480,19 +13513,19 @@
     </row>
     <row r="393" spans="1:26">
       <c r="A393" t="n">
-        <v>7557</v>
+        <v>11541</v>
       </c>
       <c r="B393" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C393" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D393" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E393" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
@@ -13512,19 +13545,19 @@
     </row>
     <row r="394" spans="1:26">
       <c r="A394" t="n">
-        <v>7558</v>
+        <v>11542</v>
       </c>
       <c r="B394" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C394" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D394" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E394" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -13544,19 +13577,19 @@
     </row>
     <row r="395" spans="1:26">
       <c r="A395" t="n">
-        <v>7559</v>
+        <v>11543</v>
       </c>
       <c r="B395" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C395" t="s">
         <v>30</v>
       </c>
       <c r="D395" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E395" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
@@ -13576,19 +13609,19 @@
     </row>
     <row r="396" spans="1:26">
       <c r="A396" t="n">
-        <v>7560</v>
+        <v>11544</v>
       </c>
       <c r="B396" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C396" t="s">
         <v>32</v>
       </c>
       <c r="D396" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E396" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
@@ -13608,19 +13641,19 @@
     </row>
     <row r="397" spans="1:26">
       <c r="A397" t="n">
-        <v>7561</v>
+        <v>11545</v>
       </c>
       <c r="B397" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C397" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D397" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E397" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
@@ -13640,19 +13673,19 @@
     </row>
     <row r="398" spans="1:26">
       <c r="A398" t="n">
-        <v>7562</v>
+        <v>11546</v>
       </c>
       <c r="B398" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C398" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D398" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E398" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
@@ -13672,19 +13705,19 @@
     </row>
     <row r="399" spans="1:26">
       <c r="A399" t="n">
-        <v>7563</v>
+        <v>11547</v>
       </c>
       <c r="B399" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C399" t="s">
         <v>30</v>
       </c>
       <c r="D399" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E399" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
@@ -13699,6 +13732,38 @@
         <v>29</v>
       </c>
       <c r="J399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26">
+      <c r="A400" t="n">
+        <v>11548</v>
+      </c>
+      <c r="B400" t="s">
+        <v>186</v>
+      </c>
+      <c r="C400" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400" t="s">
+        <v>68</v>
+      </c>
+      <c r="E400" t="n">
+        <v>23</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="s">
+        <v>29</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="s">
+        <v>29</v>
+      </c>
+      <c r="J400" t="n">
         <v>0</v>
       </c>
     </row>
